--- a/Code/temp_data/temp_form.xlsx
+++ b/Code/temp_data/temp_form.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cong Dinh\Documents\GitHub\sticker\temp_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\autnp\Documents\1. Doc\python learning\Temp\shopify_project\Code\temp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Main Link</t>
-  </si>
-  <si>
-    <t>LInk1</t>
-  </si>
-  <si>
-    <t>Link2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Body (HTML)</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Option1 Name</t>
+  </si>
+  <si>
+    <t>Option1 Value</t>
+  </si>
+  <si>
+    <t>Option2 Name</t>
+  </si>
+  <si>
+    <t>Option2 Value</t>
+  </si>
+  <si>
+    <t>Option3 Name</t>
+  </si>
+  <si>
+    <t>Option3 Value</t>
+  </si>
+  <si>
+    <t>Variant SKU</t>
+  </si>
+  <si>
+    <t>Variant Grams</t>
+  </si>
+  <si>
+    <t>Variant Inventory Tracker</t>
+  </si>
+  <si>
+    <t>Variant Inventory Qty</t>
+  </si>
+  <si>
+    <t>Variant Inventory Policy</t>
+  </si>
+  <si>
+    <t>Variant Fulfillment Service</t>
+  </si>
+  <si>
+    <t>Variant Price</t>
+  </si>
+  <si>
+    <t>Variant Compare At Price</t>
+  </si>
+  <si>
+    <t>Variant Requires Shipping</t>
+  </si>
+  <si>
+    <t>Variant Taxable</t>
+  </si>
+  <si>
+    <t>Variant Barcode</t>
+  </si>
+  <si>
+    <t>Image Src</t>
+  </si>
+  <si>
+    <t>Image Position</t>
+  </si>
+  <si>
+    <t>Image Alt Text</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
+  </si>
+  <si>
+    <t>SEO Title</t>
+  </si>
+  <si>
+    <t>SEO Description</t>
+  </si>
+  <si>
+    <t>Google Shopping / Google Product Category</t>
+  </si>
+  <si>
+    <t>Google Shopping / Gender</t>
+  </si>
+  <si>
+    <t>Google Shopping / Age Group</t>
+  </si>
+  <si>
+    <t>Google Shopping / MPN</t>
+  </si>
+  <si>
+    <t>Google Shopping / Condition</t>
+  </si>
+  <si>
+    <t>Google Shopping / Custom Product</t>
+  </si>
+  <si>
+    <t>Google Shopping / Custom Label 0</t>
+  </si>
+  <si>
+    <t>Google Shopping / Custom Label 1</t>
+  </si>
+  <si>
+    <t>Google Shopping / Custom Label 2</t>
+  </si>
+  <si>
+    <t>Google Shopping / Custom Label 3</t>
+  </si>
+  <si>
+    <t>Google Shopping / Custom Label 4</t>
+  </si>
+  <si>
+    <t>Variant Image</t>
+  </si>
+  <si>
+    <t>Variant Weight Unit</t>
+  </si>
+  <si>
+    <t>Variant Tax Code</t>
+  </si>
+  <si>
+    <t>Cost per item</t>
+  </si>
+  <si>
+    <t>Included / United States</t>
+  </si>
+  <si>
+    <t>Price / United States</t>
+  </si>
+  <si>
+    <t>Compare At Price / United States</t>
+  </si>
+  <si>
+    <t>Included / International</t>
+  </si>
+  <si>
+    <t>Price / International</t>
+  </si>
+  <si>
+    <t>Compare At Price / International</t>
+  </si>
+  <si>
+    <t>Included / Vietnam</t>
+  </si>
+  <si>
+    <t>Price / Vietnam</t>
+  </si>
+  <si>
+    <t>Compare At Price / Vietnam</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,8 +223,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,32 +508,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:BD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.86328125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="3" max="3" width="11.06640625" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:56" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
